--- a/98_Sujets_Divers/TPs_Dynamique/TP_03_Drone_Dynamique/TP_03_Drone_Eleves/Mesure_02.xlsx
+++ b/98_Sujets_Divers/TPs_Dynamique/TP_03_Drone_Dynamique/TP_03_Drone_Eleves/Mesure_02.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Cy_04_PSI_ModelisationDynamique\TP\TP_03_Drone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TP_Sujets\98_Sujets_Divers\TPs_Dynamique\TP_03_Drone_Dynamique\TP_03_Drone_Eleves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11E4882-045E-441B-878E-9A97EAA52010}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78F3D18-1CC9-48ED-9D40-60E28E545C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14150" windowHeight="10430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="1760" windowWidth="19180" windowHeight="8320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mesure_02" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4540,16 +4553,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:rowOff>177801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4880,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4914,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D2">
         <v>-7070</v>
@@ -4932,7 +4945,7 @@
         <v>-1</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D3">
         <v>-7110</v>
@@ -4950,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D4">
         <v>-7090</v>
@@ -4968,7 +4981,7 @@
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D5">
         <v>-7090</v>
@@ -4986,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D6">
         <v>-7090</v>
@@ -5004,7 +5017,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D7">
         <v>-7070</v>
@@ -5022,7 +5035,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D8">
         <v>-7090</v>
@@ -5040,7 +5053,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D9">
         <v>-7070</v>
@@ -5058,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D10">
         <v>-7090</v>
@@ -5076,7 +5089,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D11">
         <v>-7070</v>
@@ -5094,7 +5107,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D12">
         <v>-7090</v>
@@ -5112,7 +5125,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D13">
         <v>-7070</v>
@@ -5130,7 +5143,7 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D14">
         <v>-7090</v>
@@ -5148,7 +5161,7 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D15">
         <v>-7090</v>
@@ -5166,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D16">
         <v>-7070</v>
@@ -5184,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D17">
         <v>-7090</v>
@@ -5202,7 +5215,7 @@
         <v>-5</v>
       </c>
       <c r="C18">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D18">
         <v>-7110</v>
@@ -5220,7 +5233,7 @@
         <v>-3</v>
       </c>
       <c r="C19">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D19">
         <v>-7070</v>
@@ -5238,7 +5251,7 @@
         <v>-5</v>
       </c>
       <c r="C20">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D20">
         <v>-7090</v>
@@ -5256,7 +5269,7 @@
         <v>-11</v>
       </c>
       <c r="C21">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D21">
         <v>-7090</v>
@@ -5274,7 +5287,7 @@
         <v>-9</v>
       </c>
       <c r="C22">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D22">
         <v>-7070</v>
@@ -5292,7 +5305,7 @@
         <v>-13</v>
       </c>
       <c r="C23">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D23">
         <v>-7090</v>
@@ -5310,7 +5323,7 @@
         <v>-15</v>
       </c>
       <c r="C24">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D24">
         <v>-7070</v>
@@ -5328,7 +5341,7 @@
         <v>-19</v>
       </c>
       <c r="C25">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D25">
         <v>-7090</v>
@@ -5346,7 +5359,7 @@
         <v>-25</v>
       </c>
       <c r="C26">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D26">
         <v>-7110</v>
@@ -5364,7 +5377,7 @@
         <v>-33</v>
       </c>
       <c r="C27">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D27">
         <v>-7090</v>
@@ -5382,7 +5395,7 @@
         <v>-37</v>
       </c>
       <c r="C28">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D28">
         <v>-7090</v>
@@ -5400,7 +5413,7 @@
         <v>-41</v>
       </c>
       <c r="C29">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D29">
         <v>-7090</v>
@@ -5418,7 +5431,7 @@
         <v>-49</v>
       </c>
       <c r="C30">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D30">
         <v>-7090</v>
@@ -5436,7 +5449,7 @@
         <v>-55</v>
       </c>
       <c r="C31">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D31">
         <v>-7090</v>
@@ -5454,7 +5467,7 @@
         <v>-57</v>
       </c>
       <c r="C32">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D32">
         <v>-7090</v>
@@ -5472,7 +5485,7 @@
         <v>-71</v>
       </c>
       <c r="C33">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D33">
         <v>-7090</v>
@@ -5490,7 +5503,7 @@
         <v>-87</v>
       </c>
       <c r="C34">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D34">
         <v>-7090</v>
@@ -5508,7 +5521,7 @@
         <v>-89</v>
       </c>
       <c r="C35">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D35">
         <v>-7090</v>
@@ -5526,7 +5539,7 @@
         <v>-103</v>
       </c>
       <c r="C36">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D36">
         <v>-7090</v>
@@ -5544,7 +5557,7 @@
         <v>-107</v>
       </c>
       <c r="C37">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D37">
         <v>-7110</v>
@@ -5562,7 +5575,7 @@
         <v>-109</v>
       </c>
       <c r="C38">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D38">
         <v>-7070</v>
@@ -5580,7 +5593,7 @@
         <v>-119</v>
       </c>
       <c r="C39">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D39">
         <v>-7090</v>
@@ -5598,7 +5611,7 @@
         <v>-123</v>
       </c>
       <c r="C40">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D40">
         <v>-7090</v>
@@ -5616,7 +5629,7 @@
         <v>-135</v>
       </c>
       <c r="C41">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D41">
         <v>-7090</v>
@@ -5634,7 +5647,7 @@
         <v>-149</v>
       </c>
       <c r="C42">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D42">
         <v>-7090</v>
@@ -5652,7 +5665,7 @@
         <v>-147</v>
       </c>
       <c r="C43">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D43">
         <v>-7070</v>
@@ -5670,7 +5683,7 @@
         <v>-153</v>
       </c>
       <c r="C44">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D44">
         <v>-7070</v>
@@ -5688,7 +5701,7 @@
         <v>-153</v>
       </c>
       <c r="C45">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D45">
         <v>-7070</v>
@@ -5706,7 +5719,7 @@
         <v>-183</v>
       </c>
       <c r="C46">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D46">
         <v>-7070</v>
@@ -5724,7 +5737,7 @@
         <v>-167</v>
       </c>
       <c r="C47">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D47">
         <v>-7090</v>
@@ -5742,7 +5755,7 @@
         <v>-189</v>
       </c>
       <c r="C48">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D48">
         <v>-7070</v>
@@ -5760,7 +5773,7 @@
         <v>-187</v>
       </c>
       <c r="C49">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D49">
         <v>-7070</v>
@@ -5778,7 +5791,7 @@
         <v>-197</v>
       </c>
       <c r="C50">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D50">
         <v>-7070</v>
@@ -5796,7 +5809,7 @@
         <v>-211</v>
       </c>
       <c r="C51">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D51">
         <v>-7070</v>
@@ -5814,7 +5827,7 @@
         <v>-203</v>
       </c>
       <c r="C52">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D52">
         <v>-7090</v>
@@ -5832,7 +5845,7 @@
         <v>-229</v>
       </c>
       <c r="C53">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D53">
         <v>-7070</v>
@@ -5850,7 +5863,7 @@
         <v>-225</v>
       </c>
       <c r="C54">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D54">
         <v>-7090</v>
@@ -5868,7 +5881,7 @@
         <v>-247</v>
       </c>
       <c r="C55">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D55">
         <v>3205</v>
@@ -5886,7 +5899,7 @@
         <v>-249</v>
       </c>
       <c r="C56">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D56">
         <v>3004</v>
@@ -5904,7 +5917,7 @@
         <v>-255</v>
       </c>
       <c r="C57">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D57">
         <v>2844</v>
@@ -5922,7 +5935,7 @@
         <v>-271</v>
       </c>
       <c r="C58">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D58">
         <v>2644</v>
@@ -5940,7 +5953,7 @@
         <v>-271</v>
       </c>
       <c r="C59">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D59">
         <v>2504</v>
@@ -5958,7 +5971,7 @@
         <v>-287</v>
       </c>
       <c r="C60">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D60">
         <v>2303</v>
@@ -5976,7 +5989,7 @@
         <v>-299</v>
       </c>
       <c r="C61">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D61">
         <v>2003</v>
@@ -5994,7 +6007,7 @@
         <v>-313</v>
       </c>
       <c r="C62">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D62">
         <v>1662</v>
@@ -6012,7 +6025,7 @@
         <v>-317</v>
       </c>
       <c r="C63">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D63">
         <v>1402</v>
@@ -6030,7 +6043,7 @@
         <v>-339</v>
       </c>
       <c r="C64">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D64">
         <v>1162</v>
@@ -6048,7 +6061,7 @@
         <v>-355</v>
       </c>
       <c r="C65">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D65">
         <v>681</v>
@@ -6066,7 +6079,7 @@
         <v>-357</v>
       </c>
       <c r="C66">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D66">
         <v>461</v>
@@ -6084,7 +6097,7 @@
         <v>-367</v>
       </c>
       <c r="C67">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D67">
         <v>140</v>
@@ -6102,7 +6115,7 @@
         <v>-385</v>
       </c>
       <c r="C68">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D68">
         <v>-120</v>
@@ -6120,7 +6133,7 @@
         <v>-385</v>
       </c>
       <c r="C69">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D69">
         <v>-280</v>
@@ -6138,7 +6151,7 @@
         <v>-401</v>
       </c>
       <c r="C70">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D70">
         <v>-621</v>
@@ -6156,7 +6169,7 @@
         <v>-409</v>
       </c>
       <c r="C71">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D71">
         <v>-921</v>
@@ -6174,7 +6187,7 @@
         <v>-413</v>
       </c>
       <c r="C72">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D72">
         <v>-1182</v>
@@ -6192,7 +6205,7 @@
         <v>-429</v>
       </c>
       <c r="C73">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D73">
         <v>-1482</v>
@@ -6210,7 +6223,7 @@
         <v>-431</v>
       </c>
       <c r="C74">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D74">
         <v>-1742</v>
@@ -6228,7 +6241,7 @@
         <v>-449</v>
       </c>
       <c r="C75">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D75">
         <v>-2163</v>
@@ -6246,7 +6259,7 @@
         <v>-455</v>
       </c>
       <c r="C76">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D76">
         <v>-2444</v>
@@ -6264,7 +6277,7 @@
         <v>-465</v>
       </c>
       <c r="C77">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D77">
         <v>-2664</v>
@@ -6282,7 +6295,7 @@
         <v>-479</v>
       </c>
       <c r="C78">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D78">
         <v>-3104</v>
@@ -6300,7 +6313,7 @@
         <v>-483</v>
       </c>
       <c r="C79">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D79">
         <v>-3405</v>
@@ -6318,7 +6331,7 @@
         <v>-497</v>
       </c>
       <c r="C80">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D80">
         <v>-3705</v>
@@ -6336,7 +6349,7 @@
         <v>-501</v>
       </c>
       <c r="C81">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D81">
         <v>-4046</v>
@@ -6354,7 +6367,7 @@
         <v>-515</v>
       </c>
       <c r="C82">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D82">
         <v>-4406</v>
@@ -6372,7 +6385,7 @@
         <v>-527</v>
       </c>
       <c r="C83">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D83">
         <v>-4867</v>
@@ -6390,7 +6403,7 @@
         <v>-531</v>
       </c>
       <c r="C84">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D84">
         <v>-5087</v>
@@ -6408,7 +6421,7 @@
         <v>-543</v>
       </c>
       <c r="C85">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D85">
         <v>-5448</v>
@@ -6426,7 +6439,7 @@
         <v>-553</v>
       </c>
       <c r="C86">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D86">
         <v>-5888</v>
@@ -6444,7 +6457,7 @@
         <v>-537</v>
       </c>
       <c r="C87">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D87">
         <v>-6229</v>
@@ -6462,7 +6475,7 @@
         <v>-231</v>
       </c>
       <c r="C88">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D88">
         <v>-6129</v>
@@ -6480,7 +6493,7 @@
         <v>-5</v>
       </c>
       <c r="C89">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D89">
         <v>-5929</v>
@@ -6498,7 +6511,7 @@
         <v>143</v>
       </c>
       <c r="C90">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D90">
         <v>-5708</v>
@@ -6516,7 +6529,7 @@
         <v>217</v>
       </c>
       <c r="C91">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D91">
         <v>-5488</v>
@@ -6534,7 +6547,7 @@
         <v>241</v>
       </c>
       <c r="C92">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D92">
         <v>-5308</v>
@@ -6552,7 +6565,7 @@
         <v>247</v>
       </c>
       <c r="C93">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D93">
         <v>-5207</v>
@@ -6570,7 +6583,7 @@
         <v>241</v>
       </c>
       <c r="C94">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D94">
         <v>-5007</v>
@@ -6588,7 +6601,7 @@
         <v>243</v>
       </c>
       <c r="C95">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D95">
         <v>-4847</v>
@@ -6606,7 +6619,7 @@
         <v>217</v>
       </c>
       <c r="C96">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D96">
         <v>-4747</v>
@@ -6624,7 +6637,7 @@
         <v>217</v>
       </c>
       <c r="C97">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D97">
         <v>-4607</v>
@@ -6642,7 +6655,7 @@
         <v>183</v>
       </c>
       <c r="C98">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D98">
         <v>-4406</v>
@@ -6660,7 +6673,7 @@
         <v>167</v>
       </c>
       <c r="C99">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D99">
         <v>-4266</v>
@@ -6678,7 +6691,7 @@
         <v>149</v>
       </c>
       <c r="C100">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D100">
         <v>-4246</v>
@@ -6696,7 +6709,7 @@
         <v>135</v>
       </c>
       <c r="C101">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D101">
         <v>-4126</v>
@@ -6714,7 +6727,7 @@
         <v>111</v>
       </c>
       <c r="C102">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D102">
         <v>-4086</v>
@@ -6732,7 +6745,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D103">
         <v>-4026</v>
@@ -6750,7 +6763,7 @@
         <v>87</v>
       </c>
       <c r="C104">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D104">
         <v>-3986</v>
@@ -6768,7 +6781,7 @@
         <v>67</v>
       </c>
       <c r="C105">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D105">
         <v>-3966</v>
@@ -6786,7 +6799,7 @@
         <v>53</v>
       </c>
       <c r="C106">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D106">
         <v>-3946</v>
@@ -6804,7 +6817,7 @@
         <v>37</v>
       </c>
       <c r="C107">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D107">
         <v>-3926</v>
@@ -6822,7 +6835,7 @@
         <v>31</v>
       </c>
       <c r="C108">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D108">
         <v>-3926</v>
@@ -6840,7 +6853,7 @@
         <v>11</v>
       </c>
       <c r="C109">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D109">
         <v>-3946</v>
@@ -6858,7 +6871,7 @@
         <v>-7</v>
       </c>
       <c r="C110">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D110">
         <v>-3966</v>
@@ -6876,7 +6889,7 @@
         <v>-17</v>
       </c>
       <c r="C111">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D111">
         <v>-4006</v>
@@ -6894,7 +6907,7 @@
         <v>-35</v>
       </c>
       <c r="C112">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D112">
         <v>-4006</v>
@@ -6912,7 +6925,7 @@
         <v>-43</v>
       </c>
       <c r="C113">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D113">
         <v>-4066</v>
@@ -6930,7 +6943,7 @@
         <v>-61</v>
       </c>
       <c r="C114">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D114">
         <v>-4126</v>
@@ -6948,7 +6961,7 @@
         <v>-77</v>
       </c>
       <c r="C115">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D115">
         <v>-4206</v>
@@ -6966,7 +6979,7 @@
         <v>-83</v>
       </c>
       <c r="C116">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D116">
         <v>-4246</v>
@@ -6984,7 +6997,7 @@
         <v>-101</v>
       </c>
       <c r="C117">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D117">
         <v>-4326</v>
@@ -7002,7 +7015,7 @@
         <v>-115</v>
       </c>
       <c r="C118">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D118">
         <v>-4426</v>
@@ -7020,7 +7033,7 @@
         <v>-129</v>
       </c>
       <c r="C119">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D119">
         <v>-4506</v>
@@ -7038,7 +7051,7 @@
         <v>-143</v>
       </c>
       <c r="C120">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D120">
         <v>-4627</v>
@@ -7056,7 +7069,7 @@
         <v>-151</v>
       </c>
       <c r="C121">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D121">
         <v>-4727</v>
@@ -7074,7 +7087,7 @@
         <v>-167</v>
       </c>
       <c r="C122">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D122">
         <v>-4867</v>
@@ -7092,7 +7105,7 @@
         <v>-199</v>
       </c>
       <c r="C123">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D123">
         <v>-5227</v>
@@ -7110,7 +7123,7 @@
         <v>-213</v>
       </c>
       <c r="C124">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D124">
         <v>-5428</v>
@@ -7128,7 +7141,7 @@
         <v>-229</v>
       </c>
       <c r="C125">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D125">
         <v>-5608</v>
@@ -7146,7 +7159,7 @@
         <v>-235</v>
       </c>
       <c r="C126">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D126">
         <v>-5728</v>
@@ -7164,7 +7177,7 @@
         <v>-251</v>
       </c>
       <c r="C127">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D127">
         <v>-5929</v>
@@ -7182,7 +7195,7 @@
         <v>-259</v>
       </c>
       <c r="C128">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D128">
         <v>-6149</v>
@@ -7200,7 +7213,7 @@
         <v>-193</v>
       </c>
       <c r="C129">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D129">
         <v>-6189</v>
@@ -7218,7 +7231,7 @@
         <v>-39</v>
       </c>
       <c r="C130">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D130">
         <v>-6069</v>
@@ -7236,7 +7249,7 @@
         <v>61</v>
       </c>
       <c r="C131">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D131">
         <v>-5949</v>
@@ -7254,7 +7267,7 @@
         <v>79</v>
       </c>
       <c r="C132">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D132">
         <v>-5908</v>
@@ -7272,7 +7285,7 @@
         <v>101</v>
       </c>
       <c r="C133">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D133">
         <v>-5808</v>
@@ -7290,7 +7303,7 @@
         <v>91</v>
       </c>
       <c r="C134">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D134">
         <v>-5748</v>
@@ -7308,7 +7321,7 @@
         <v>91</v>
       </c>
       <c r="C135">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D135">
         <v>-5708</v>
@@ -7326,7 +7339,7 @@
         <v>79</v>
       </c>
       <c r="C136">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D136">
         <v>-5648</v>
@@ -7344,7 +7357,7 @@
         <v>61</v>
       </c>
       <c r="C137">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D137">
         <v>-5648</v>
@@ -7362,7 +7375,7 @@
         <v>53</v>
       </c>
       <c r="C138">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D138">
         <v>-5648</v>
@@ -7380,7 +7393,7 @@
         <v>29</v>
       </c>
       <c r="C139">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D139">
         <v>-5628</v>
@@ -7398,7 +7411,7 @@
         <v>29</v>
       </c>
       <c r="C140">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D140">
         <v>-5608</v>
@@ -7416,7 +7429,7 @@
         <v>5</v>
       </c>
       <c r="C141">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D141">
         <v>-5648</v>
@@ -7434,7 +7447,7 @@
         <v>-13</v>
       </c>
       <c r="C142">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D142">
         <v>-5628</v>
@@ -7452,7 +7465,7 @@
         <v>-19</v>
       </c>
       <c r="C143">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D143">
         <v>-5668</v>
@@ -7470,7 +7483,7 @@
         <v>-45</v>
       </c>
       <c r="C144">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D144">
         <v>-5728</v>
@@ -7488,7 +7501,7 @@
         <v>-47</v>
       </c>
       <c r="C145">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D145">
         <v>-5768</v>
@@ -7506,7 +7519,7 @@
         <v>-63</v>
       </c>
       <c r="C146">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D146">
         <v>-5808</v>
@@ -7524,7 +7537,7 @@
         <v>-73</v>
       </c>
       <c r="C147">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D147">
         <v>-5868</v>
@@ -7542,7 +7555,7 @@
         <v>-87</v>
       </c>
       <c r="C148">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D148">
         <v>-5969</v>
@@ -7560,7 +7573,7 @@
         <v>-101</v>
       </c>
       <c r="C149">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D149">
         <v>-6029</v>
@@ -7578,7 +7591,7 @@
         <v>-109</v>
       </c>
       <c r="C150">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D150">
         <v>-6109</v>
@@ -7596,7 +7609,7 @@
         <v>-101</v>
       </c>
       <c r="C151">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D151">
         <v>-6149</v>
@@ -7614,7 +7627,7 @@
         <v>5</v>
       </c>
       <c r="C152">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D152">
         <v>-6069</v>
@@ -7632,7 +7645,7 @@
         <v>27</v>
       </c>
       <c r="C153">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D153">
         <v>-6049</v>
@@ -7650,7 +7663,7 @@
         <v>37</v>
       </c>
       <c r="C154">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D154">
         <v>-6009</v>
@@ -7668,7 +7681,7 @@
         <v>41</v>
       </c>
       <c r="C155">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D155">
         <v>-6009</v>
@@ -7686,7 +7699,7 @@
         <v>29</v>
       </c>
       <c r="C156">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D156">
         <v>-5969</v>
@@ -7704,7 +7717,7 @@
         <v>19</v>
       </c>
       <c r="C157">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D157">
         <v>-5989</v>
@@ -7722,7 +7735,7 @@
         <v>7</v>
       </c>
       <c r="C158">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D158">
         <v>-6009</v>
@@ -7740,7 +7753,7 @@
         <v>-13</v>
       </c>
       <c r="C159">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D159">
         <v>-6009</v>
@@ -7758,7 +7771,7 @@
         <v>-15</v>
       </c>
       <c r="C160">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D160">
         <v>-5989</v>
@@ -7776,7 +7789,7 @@
         <v>-33</v>
       </c>
       <c r="C161">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D161">
         <v>-6069</v>
@@ -7794,7 +7807,7 @@
         <v>-37</v>
       </c>
       <c r="C162">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D162">
         <v>-6089</v>
@@ -7812,7 +7825,7 @@
         <v>-45</v>
       </c>
       <c r="C163">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D163">
         <v>-6129</v>
@@ -7830,7 +7843,7 @@
         <v>17</v>
       </c>
       <c r="C164">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D164">
         <v>-6069</v>
@@ -7848,7 +7861,7 @@
         <v>15</v>
       </c>
       <c r="C165">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D165">
         <v>-6089</v>
@@ -7866,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D166">
         <v>-6069</v>
@@ -7884,7 +7897,7 @@
         <v>-7</v>
       </c>
       <c r="C167">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D167">
         <v>-6089</v>
@@ -7902,7 +7915,7 @@
         <v>-13</v>
       </c>
       <c r="C168">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D168">
         <v>-6089</v>
@@ -7920,7 +7933,7 @@
         <v>-11</v>
       </c>
       <c r="C169">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D169">
         <v>-6089</v>
@@ -7938,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D170">
         <v>-6089</v>
@@ -7956,7 +7969,7 @@
         <v>13</v>
       </c>
       <c r="C171">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D171">
         <v>-6109</v>
@@ -7974,7 +7987,7 @@
         <v>11</v>
       </c>
       <c r="C172">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D172">
         <v>-6089</v>
@@ -7992,7 +8005,7 @@
         <v>9</v>
       </c>
       <c r="C173">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D173">
         <v>-6069</v>
@@ -8010,7 +8023,7 @@
         <v>-1</v>
       </c>
       <c r="C174">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D174">
         <v>-6089</v>
@@ -8028,7 +8041,7 @@
         <v>-7</v>
       </c>
       <c r="C175">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D175">
         <v>-6129</v>
@@ -8046,7 +8059,7 @@
         <v>-3</v>
       </c>
       <c r="C176">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D176">
         <v>-6129</v>
@@ -8064,7 +8077,7 @@
         <v>5</v>
       </c>
       <c r="C177">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D177">
         <v>-6089</v>
@@ -8082,7 +8095,7 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D178">
         <v>-6069</v>
@@ -8100,7 +8113,7 @@
         <v>7</v>
       </c>
       <c r="C179">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D179">
         <v>-6089</v>
@@ -8118,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D180">
         <v>-6089</v>
@@ -8136,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D181">
         <v>-6089</v>
@@ -8154,7 +8167,7 @@
         <v>-1</v>
       </c>
       <c r="C182">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D182">
         <v>-6129</v>
@@ -8172,7 +8185,7 @@
         <v>5</v>
       </c>
       <c r="C183">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D183">
         <v>-6109</v>
@@ -8190,7 +8203,7 @@
         <v>9</v>
       </c>
       <c r="C184">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D184">
         <v>-6109</v>
@@ -8208,7 +8221,7 @@
         <v>7</v>
       </c>
       <c r="C185">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D185">
         <v>-6089</v>
@@ -8226,7 +8239,7 @@
         <v>3</v>
       </c>
       <c r="C186">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D186">
         <v>-6089</v>
@@ -8244,7 +8257,7 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D187">
         <v>-6109</v>
@@ -8262,7 +8275,7 @@
         <v>3</v>
       </c>
       <c r="C188">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D188">
         <v>-6089</v>
@@ -8280,7 +8293,7 @@
         <v>5</v>
       </c>
       <c r="C189">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D189">
         <v>-6109</v>
@@ -8298,7 +8311,7 @@
         <v>7</v>
       </c>
       <c r="C190">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D190">
         <v>-6089</v>
@@ -8316,7 +8329,7 @@
         <v>5</v>
       </c>
       <c r="C191">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D191">
         <v>-6109</v>
@@ -8334,7 +8347,7 @@
         <v>5</v>
       </c>
       <c r="C192">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D192">
         <v>-6089</v>
@@ -8352,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D193">
         <v>-6089</v>
@@ -8370,7 +8383,7 @@
         <v>5</v>
       </c>
       <c r="C194">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D194">
         <v>-6089</v>
@@ -8388,7 +8401,7 @@
         <v>5</v>
       </c>
       <c r="C195">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D195">
         <v>-6109</v>
@@ -8406,7 +8419,7 @@
         <v>7</v>
       </c>
       <c r="C196">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D196">
         <v>-6089</v>
@@ -8424,7 +8437,7 @@
         <v>5</v>
       </c>
       <c r="C197">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D197">
         <v>-6109</v>
@@ -8442,7 +8455,7 @@
         <v>3</v>
       </c>
       <c r="C198">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D198">
         <v>-6109</v>
@@ -8460,7 +8473,7 @@
         <v>5</v>
       </c>
       <c r="C199">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D199">
         <v>-6109</v>
@@ -8478,7 +8491,7 @@
         <v>5</v>
       </c>
       <c r="C200">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D200">
         <v>-6109</v>
@@ -8496,7 +8509,7 @@
         <v>3</v>
       </c>
       <c r="C201">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D201">
         <v>-6109</v>
@@ -8514,7 +8527,7 @@
         <v>9</v>
       </c>
       <c r="C202">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D202">
         <v>-6089</v>
@@ -8532,7 +8545,7 @@
         <v>7</v>
       </c>
       <c r="C203">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D203">
         <v>-6089</v>
@@ -8550,7 +8563,7 @@
         <v>5</v>
       </c>
       <c r="C204">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D204">
         <v>-6089</v>
@@ -8568,7 +8581,7 @@
         <v>3</v>
       </c>
       <c r="C205">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D205">
         <v>-6109</v>
@@ -8586,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D206">
         <v>-6089</v>
@@ -8604,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="C207">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D207">
         <v>-6109</v>
@@ -8622,7 +8635,7 @@
         <v>5</v>
       </c>
       <c r="C208">
-        <v>-51</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D208">
         <v>-6109</v>
